--- a/time_tables/full_time_undergraduate/zovs_4_kurs.xlsx
+++ b/time_tables/full_time_undergraduate/zovs_4_kurs.xlsx
@@ -7,21 +7,19 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9330"/>
   </bookViews>
   <sheets>
-    <sheet name="с 30.12." sheetId="107" r:id="rId1"/>
-    <sheet name="2-е полугодие с 13.01.-18.01." sheetId="108" r:id="rId2"/>
-    <sheet name="с 20.01.-08.02." sheetId="109" r:id="rId3"/>
+    <sheet name="2-е полугодие с 13.01.-18.01." sheetId="108" r:id="rId1"/>
+    <sheet name="с 20.01.-08.02." sheetId="109" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2-е полугодие с 13.01.-18.01.'!$A$1:$U$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'с 20.01.-08.02.'!$A$1:$U$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'с 30.12.'!$A$1:$U$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2-е полугодие с 13.01.-18.01.'!$A$1:$U$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'с 20.01.-08.02.'!$A$1:$U$42</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="172">
   <si>
     <t>Институт АФК</t>
   </si>
@@ -425,127 +423,6 @@
     <t>КАНИКУЛЫ</t>
   </si>
   <si>
-    <t>30.12.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ЗАЧЕТ
-Кафедра проф. мед.
-Дисциплина по выбору</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Психогенетика
-(д.б.н., доцент Кьергаард  А.В. )</t>
-    </r>
-  </si>
-  <si>
-    <t>31.12.</t>
-  </si>
-  <si>
-    <t>01.01.</t>
-  </si>
-  <si>
-    <t>02.01.</t>
-  </si>
-  <si>
-    <t>03.01.</t>
-  </si>
-  <si>
-    <t>04.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Согласовано 
-Начальник УМЦ                   _____________________    М.А.Утеганова                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                         
-Составила специалист       _____________________ Н.А. Догонова                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Кроме профиля Адаптивный спорт</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-ЭКЗАМЕН
-Кафедра
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="48"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ПД: Б.1.В.08</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="29"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(к.п.н., доцент Димура И.Н., Белодедова А.А. - ФКиС НСЯ, Никифорова Н.В., Гутников С.В. - АФВ, Аксенова Н.Н. - ФР,
-д.п.н., профессор Мосунов Д.Ф.,  к.п.н., доцент Мосунова М.Д. -  ГР, к.м.н., доцент Корженевская Т.Б. - ЛФК)</t>
-    </r>
-  </si>
-  <si>
     <t>13.01.</t>
   </si>
   <si>
@@ -1395,67 +1272,11 @@
 (Калашникова Е.В.)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="36"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Мойка 108 к. 2 ауд.7 
-Только ФОТ, СМ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Лекция
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="36"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Дисциплина по выбору</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Менеджмент спортивных соревнований
-(к.э.н., доцент Енченко И.В.)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Мойка 108 к.2 ауд.9
 Лекция
 Массаж
 (Ивлев В.И.)
 </t>
-  </si>
-  <si>
-    <t>ауд.423
-Лекция
-Пропаганда и СО в сфере ФКиС
-(Кротова Е.Е.)</t>
   </si>
   <si>
     <t>Мойка 108 к.2 ауд.7 
@@ -1861,67 +1682,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ауд.312 - 24.01., 07.02.
-ауд.304 - 31.01.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="36"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Дисциплина по выбору</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Адаптивная физическая рекреация
-(Матвеева С.С.)
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ауд.304
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="36"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Дисциплина по выбору</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Адаптивная физическая рекреация
-(Поморцева А.А.)
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="36"/>
@@ -2478,12 +2238,207 @@
 (к.п.н. доцент Михайлова Д.А.)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="48"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>22.01. - ауд.421
+29.01., 05.02. - ауд.423</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="48"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Лекция
+Пропаганда и СО в сфере ФКиС
+(Кротова Е.Е.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ауд.312 - 24.01.
+ауд.304 - 31.01.
+ауд.411. - 07.02.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="36"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Дисциплина по выбору</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Адаптивная физическая рекреация
+(Матвеева С.С.)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>24.01.,31.01. - ауд.304
+07.02. - 305</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="36"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Дисциплина по выбору</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Адаптивная физическая рекреация
+(Поморцева А.А.)
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд.13 ИМиСТ
+Организация и управление в ИВС - для СМ
+(к.э.н., доцент Гаврилов В.А.)
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="36"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Мойка 108 к. 2 ауд.7 
+Только ФОТ, СМ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Лекция
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="36"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Дисциплина по выбору</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Менеджмент спортивных соревнований
+(к.э.н., доцент Енченко И.В.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Кафедра
+Функционирование отдельных типов СС - для ССиИ</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2576,48 +2531,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="48"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="48"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="29"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2636,14 +2554,6 @@
     <font>
       <b/>
       <sz val="36"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="30"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2692,15 +2602,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2868,6 +2769,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2895,7 +2804,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -3453,21 +3362,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -3568,7 +3462,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3642,71 +3536,70 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3722,7 +3615,7 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3737,336 +3630,306 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4402,7 +4265,7 @@
   <dimension ref="A1:BJ42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="20" zoomScaleNormal="30" zoomScaleSheetLayoutView="20" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -4410,13 +4273,12 @@
     <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="71.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="50.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="68.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="55" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="57.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="63.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="59.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="79.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="65" style="1" customWidth="1"/>
@@ -4432,80 +4294,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="204" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="140" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
       <c r="S1" s="18"/>
     </row>
     <row r="2" spans="1:32" ht="146.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="144" t="s">
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="147" t="s">
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="148"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="116"/>
       <c r="S2" s="19"/>
-      <c r="T2" s="138" t="s">
+      <c r="T2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="138"/>
+      <c r="U2" s="104"/>
     </row>
     <row r="3" spans="1:32" ht="273" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="125" t="s">
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="71"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="69"/>
       <c r="O3" s="13" t="s">
         <v>51</v>
       </c>
@@ -4519,19 +4381,19 @@
         <v>48</v>
       </c>
       <c r="S3" s="20"/>
-      <c r="T3" s="128" t="s">
+      <c r="T3" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="128"/>
+      <c r="U3" s="123"/>
     </row>
     <row r="4" spans="1:32" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="128" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="43" t="s">
@@ -4546,7 +4408,7 @@
       <c r="G4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="67"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="46" t="s">
         <v>29</v>
       </c>
@@ -4569,10 +4431,10 @@
       <c r="P4" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="135" t="s">
+      <c r="Q4" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="136"/>
+      <c r="R4" s="131"/>
       <c r="S4" s="49"/>
       <c r="T4" s="46" t="s">
         <v>44</v>
@@ -4582,9 +4444,9 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="227.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="130"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="134"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="31" t="s">
         <v>14</v>
       </c>
@@ -4597,7 +4459,7 @@
       <c r="G5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="36"/>
+      <c r="H5" s="50"/>
       <c r="I5" s="33" t="s">
         <v>33</v>
       </c>
@@ -4660,43 +4522,42 @@
       <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:32" ht="363.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="79"/>
+      <c r="E7" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="24"/>
+      <c r="O7" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="115" t="s">
+      <c r="R7" s="135"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="S7" s="17"/>
-      <c r="T7" s="120" t="s">
-        <v>80</v>
-      </c>
-      <c r="U7" s="121"/>
+      <c r="U7" s="135"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
@@ -4709,30 +4570,46 @@
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
     </row>
-    <row r="8" spans="1:32" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="113"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="58" t="s">
+    <row r="8" spans="1:32" ht="408" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>75</v>
+      </c>
       <c r="N8" s="17"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
+      <c r="O8" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="137"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="137"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
@@ -4742,30 +4619,45 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="113"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="59" t="s">
+    <row r="9" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="132"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
+      <c r="D9" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="42"/>
       <c r="N9" s="22"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="137"/>
       <c r="S9" s="17"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="23"/>
+      <c r="T9" s="136"/>
+      <c r="U9" s="137"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -4775,30 +4667,42 @@
       <c r="AE9" s="8"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="113"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="58" t="s">
+    <row r="10" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="132"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
+      <c r="D10" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="42"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="137"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
+      <c r="T10" s="136"/>
+      <c r="U10" s="137"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
@@ -4808,13 +4712,13 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="60" t="s">
+    <row r="11" spans="1:32" ht="357.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="132"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="16"/>
       <c r="G11" s="23"/>
@@ -4822,16 +4726,15 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="23"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="23"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="76"/>
       <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="139"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="139"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
@@ -4843,22 +4746,22 @@
       <c r="AF11" s="8"/>
     </row>
     <row r="12" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="61"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="17"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="75"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="27"/>
       <c r="S12" s="17"/>
@@ -4875,39 +4778,39 @@
       <c r="AF12" s="8"/>
     </row>
     <row r="13" spans="1:32" ht="375" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="114" t="s">
+      <c r="A13" s="132" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="141" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="141"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="115" t="s">
+      <c r="R13" s="135"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
+      <c r="U13" s="135"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -4915,30 +4818,32 @@
       <c r="AE13" s="8"/>
       <c r="AF13" s="8"/>
     </row>
-    <row r="14" spans="1:32" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="58" t="s">
+    <row r="14" spans="1:32" ht="408" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="132"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
+      <c r="D14" s="142" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="137"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="42"/>
+      <c r="T14" s="136"/>
+      <c r="U14" s="137"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -4947,29 +4852,33 @@
       <c r="AF14" s="8"/>
     </row>
     <row r="15" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="113"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="58" t="s">
+      <c r="A15" s="132"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
+      <c r="D15" s="142" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="142" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="144"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="137"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="42"/>
+      <c r="T15" s="136"/>
+      <c r="U15" s="137"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
@@ -4982,30 +4891,34 @@
       <c r="AE15" s="8"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="113"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="58" t="s">
+    <row r="16" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="132"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="16"/>
+      <c r="O16" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="137"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="23"/>
+      <c r="T16" s="136"/>
+      <c r="U16" s="137"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
@@ -5019,29 +4932,29 @@
       <c r="AF16" s="8"/>
     </row>
     <row r="17" spans="1:32" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="113"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="60" t="s">
+      <c r="A17" s="132"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
       <c r="N17" s="17"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="138"/>
+      <c r="U17" s="139"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
@@ -5055,9 +4968,9 @@
       <c r="AF17" s="8"/>
     </row>
     <row r="18" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="61"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -5072,7 +4985,7 @@
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
+      <c r="R18" s="75"/>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
@@ -5088,40 +5001,35 @@
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="113" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="114" t="s">
+    <row r="19" spans="1:32" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="132" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="23"/>
+      <c r="Q19" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="115" t="s">
+      <c r="R19" s="135"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
+      <c r="U19" s="135"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
@@ -5132,30 +5040,38 @@
       <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
     </row>
-    <row r="20" spans="1:32" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="113"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="58" t="s">
+    <row r="20" spans="1:32" ht="407.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="132"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
+      <c r="D20" s="142" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="42"/>
+      <c r="M20" s="55" t="s">
+        <v>73</v>
+      </c>
       <c r="N20" s="17"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
+      <c r="O20" s="145" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="137"/>
       <c r="S20" s="17"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
+      <c r="T20" s="136"/>
+      <c r="U20" s="137"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
@@ -5166,30 +5082,36 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="21" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="113"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="58" t="s">
+    <row r="21" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="132"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
+      <c r="D21" s="147" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="K21" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="55" t="s">
+        <v>75</v>
+      </c>
       <c r="N21" s="17"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
+      <c r="O21" s="145" t="s">
+        <v>86</v>
+      </c>
+      <c r="P21" s="146"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="137"/>
       <c r="S21" s="17"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
+      <c r="T21" s="136"/>
+      <c r="U21" s="137"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
@@ -5200,30 +5122,36 @@
       <c r="AE21" s="8"/>
       <c r="AF21" s="8"/>
     </row>
-    <row r="22" spans="1:32" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="113"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="58" t="s">
+    <row r="22" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="132"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
+      <c r="D22" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="23"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="137"/>
       <c r="S22" s="17"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
+      <c r="T22" s="136"/>
+      <c r="U22" s="137"/>
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
@@ -5236,30 +5164,35 @@
       <c r="AE22" s="8"/>
       <c r="AF22" s="8"/>
     </row>
-    <row r="23" spans="1:32" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="113"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="60" t="s">
+    <row r="23" spans="1:32" ht="362.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="132"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="D23" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="42"/>
+      <c r="F23" s="82" t="s">
+        <v>62</v>
+      </c>
       <c r="H23" s="17"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="16"/>
+      <c r="J23" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" s="147"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="147"/>
+      <c r="O23" s="147"/>
       <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="23"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="139"/>
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
@@ -5273,7 +5206,7 @@
       <c r="AF23" s="8"/>
     </row>
     <row r="24" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="61"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
       <c r="D24" s="17"/>
@@ -5306,40 +5239,42 @@
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
     </row>
-    <row r="25" spans="1:32" s="11" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="113" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="114" t="s">
+    <row r="25" spans="1:32" s="11" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="132" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="145" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="146"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" s="146"/>
+      <c r="Q25" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="115" t="s">
+      <c r="R25" s="135"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
+      <c r="U25" s="135"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
@@ -5352,30 +5287,34 @@
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
     </row>
-    <row r="26" spans="1:32" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="113"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="58" t="s">
+    <row r="26" spans="1:32" ht="408.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="132"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="115"/>
+      <c r="D26" s="145" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="146"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
+      <c r="O26" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" s="146"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="137"/>
       <c r="S26" s="17"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
+      <c r="T26" s="136"/>
+      <c r="U26" s="137"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -5385,30 +5324,32 @@
       <c r="AE26" s="8"/>
       <c r="AF26" s="8"/>
     </row>
-    <row r="27" spans="1:32" ht="68.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="113"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="58" t="s">
+    <row r="27" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="132"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
+      <c r="D27" s="142" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="144"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="137"/>
       <c r="S27" s="17"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
+      <c r="T27" s="136"/>
+      <c r="U27" s="137"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
@@ -5418,30 +5359,32 @@
       <c r="AE27" s="8"/>
       <c r="AF27" s="8"/>
     </row>
-    <row r="28" spans="1:32" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="113"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="58" t="s">
+    <row r="28" spans="1:32" ht="407.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="132"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
+      <c r="D28" s="142" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="143"/>
+      <c r="N28" s="143"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="144"/>
+      <c r="Q28" s="136"/>
+      <c r="R28" s="137"/>
       <c r="S28" s="17"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
+      <c r="T28" s="136"/>
+      <c r="U28" s="137"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
@@ -5455,29 +5398,29 @@
       <c r="AF28" s="8"/>
     </row>
     <row r="29" spans="1:32" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="113"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="60" t="s">
+      <c r="A29" s="132"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="139"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="139"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
@@ -5491,23 +5434,23 @@
       <c r="AF29" s="8"/>
     </row>
     <row r="30" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="61"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="28"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
@@ -5524,40 +5467,42 @@
       <c r="AE30" s="8"/>
       <c r="AF30" s="8"/>
     </row>
-    <row r="31" spans="1:32" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="114" t="s">
+    <row r="31" spans="1:32" ht="408" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="132" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="115" t="s">
+      <c r="D31" s="142" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="115" t="s">
+      <c r="R31" s="135"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="73"/>
+      <c r="U31" s="135"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
@@ -5570,30 +5515,34 @@
       <c r="AE31" s="8"/>
       <c r="AF31" s="8"/>
     </row>
-    <row r="32" spans="1:32" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="113"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="64" t="s">
+    <row r="32" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="132"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="115"/>
-      <c r="P32" s="115"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
+      <c r="D32" s="142" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="143"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="142" t="s">
+        <v>83</v>
+      </c>
+      <c r="K32" s="143"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="143"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="143"/>
+      <c r="P32" s="144"/>
+      <c r="Q32" s="136"/>
+      <c r="R32" s="137"/>
       <c r="S32" s="17"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
+      <c r="T32" s="136"/>
+      <c r="U32" s="137"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -5603,30 +5552,38 @@
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
     </row>
-    <row r="33" spans="1:62" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="113"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="64" t="s">
+    <row r="33" spans="1:62" ht="377.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="132"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="42"/>
+      <c r="G33" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="H33" s="17"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="115"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="142" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33" s="143"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="143"/>
+      <c r="N33" s="143"/>
+      <c r="O33" s="144"/>
+      <c r="P33" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q33" s="136"/>
+      <c r="R33" s="137"/>
       <c r="S33" s="17"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
+      <c r="T33" s="136"/>
+      <c r="U33" s="137"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
@@ -5637,30 +5594,36 @@
       <c r="AE33" s="8"/>
       <c r="AF33" s="8"/>
     </row>
-    <row r="34" spans="1:62" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="113"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="64" t="s">
+    <row r="34" spans="1:62" ht="373.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="132"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="55" t="s">
+        <v>65</v>
+      </c>
       <c r="H34" s="17"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
       <c r="N34" s="22"/>
-      <c r="O34" s="115"/>
-      <c r="P34" s="115"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
+      <c r="O34" s="145" t="s">
+        <v>97</v>
+      </c>
+      <c r="P34" s="146"/>
+      <c r="Q34" s="136"/>
+      <c r="R34" s="137"/>
       <c r="S34" s="17"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="73"/>
+      <c r="T34" s="136"/>
+      <c r="U34" s="137"/>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
@@ -5672,30 +5635,29 @@
       <c r="AE34" s="8"/>
       <c r="AF34" s="8"/>
     </row>
-    <row r="35" spans="1:62" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="113"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="65" t="s">
+    <row r="35" spans="1:62" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="132"/>
+      <c r="B35" s="140"/>
+      <c r="C35" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="17"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="75"/>
       <c r="O35" s="23"/>
       <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
+      <c r="Q35" s="138"/>
+      <c r="R35" s="139"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="138"/>
+      <c r="U35" s="139"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
       <c r="X35" s="8"/>
@@ -5709,7 +5671,7 @@
       <c r="AF35" s="8"/>
     </row>
     <row r="36" spans="1:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
       <c r="D36" s="17"/>
@@ -5742,40 +5704,50 @@
       <c r="AE36" s="8"/>
       <c r="AF36" s="8"/>
     </row>
-    <row r="37" spans="1:62" s="11" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="114" t="s">
+    <row r="37" spans="1:62" s="11" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="149" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="115" t="s">
+      <c r="D37" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="L37" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="M37" s="30"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="115" t="s">
+      <c r="R37" s="135"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="115"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="P37" s="115"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="73"/>
-      <c r="U37" s="73"/>
+      <c r="U37" s="135"/>
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
       <c r="Y37" s="10"/>
@@ -5787,30 +5759,41 @@
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
     </row>
-    <row r="38" spans="1:62" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="117"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="58" t="s">
+    <row r="38" spans="1:62" ht="406.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="150"/>
+      <c r="B38" s="140"/>
+      <c r="C38" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
+      <c r="D38" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="42"/>
+      <c r="G38" s="82" t="s">
+        <v>59</v>
+      </c>
       <c r="H38" s="17"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="115"/>
+      <c r="I38" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" s="23"/>
       <c r="N38" s="17"/>
-      <c r="O38" s="115"/>
-      <c r="P38" s="115"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="136"/>
+      <c r="R38" s="137"/>
       <c r="S38" s="17"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="73"/>
+      <c r="T38" s="136"/>
+      <c r="U38" s="137"/>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
@@ -5819,30 +5802,42 @@
       <c r="AE38" s="8"/>
       <c r="AF38" s="8"/>
     </row>
-    <row r="39" spans="1:62" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="117"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="58" t="s">
+    <row r="39" spans="1:62" ht="401.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="150"/>
+      <c r="B39" s="140"/>
+      <c r="C39" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="23"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="115"/>
+      <c r="I39" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" s="42"/>
+      <c r="L39" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="55" t="s">
+        <v>73</v>
+      </c>
       <c r="N39" s="17"/>
-      <c r="O39" s="115"/>
-      <c r="P39" s="115"/>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="73"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="136"/>
+      <c r="R39" s="137"/>
       <c r="S39" s="17"/>
-      <c r="T39" s="73"/>
-      <c r="U39" s="73"/>
+      <c r="T39" s="136"/>
+      <c r="U39" s="137"/>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
@@ -5851,30 +5846,38 @@
       <c r="AE39" s="8"/>
       <c r="AF39" s="8"/>
     </row>
-    <row r="40" spans="1:62" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="117"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="58" t="s">
+    <row r="40" spans="1:62" ht="407.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="150"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="23"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="115"/>
+      <c r="I40" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="55" t="s">
+        <v>75</v>
+      </c>
       <c r="N40" s="17"/>
-      <c r="O40" s="115"/>
-      <c r="P40" s="115"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="136"/>
+      <c r="R40" s="137"/>
       <c r="S40" s="17"/>
-      <c r="T40" s="73"/>
-      <c r="U40" s="73"/>
+      <c r="T40" s="136"/>
+      <c r="U40" s="137"/>
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
@@ -5886,10 +5889,10 @@
       <c r="AE40" s="8"/>
       <c r="AF40" s="8"/>
     </row>
-    <row r="41" spans="1:62" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="118"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="66" t="s">
+    <row r="41" spans="1:62" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="151"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="57" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="16"/>
@@ -5905,11 +5908,11 @@
       <c r="N41" s="17"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
+      <c r="Q41" s="138"/>
+      <c r="R41" s="139"/>
       <c r="S41" s="17"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
+      <c r="T41" s="138"/>
+      <c r="U41" s="139"/>
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
@@ -5922,1861 +5925,71 @@
       <c r="AE41" s="8"/>
       <c r="AF41" s="8"/>
     </row>
-    <row r="42" spans="1:62" s="55" customFormat="1" ht="116.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="112" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="112"/>
-      <c r="L42" s="112"/>
-      <c r="M42" s="112"/>
-      <c r="N42" s="112"/>
-      <c r="O42" s="112"/>
-      <c r="P42" s="112"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="54"/>
-      <c r="AD42" s="54"/>
-      <c r="AE42" s="53"/>
-      <c r="AF42" s="53"/>
-      <c r="AG42" s="53"/>
-      <c r="AH42" s="53"/>
-      <c r="AI42" s="53"/>
-      <c r="AJ42" s="53"/>
-      <c r="AK42" s="53"/>
-      <c r="AL42" s="53"/>
-      <c r="AM42" s="53"/>
-      <c r="AN42" s="53"/>
-      <c r="AO42" s="53"/>
-      <c r="AP42" s="53"/>
-      <c r="AQ42" s="53"/>
-      <c r="AR42" s="53"/>
-      <c r="AS42" s="53"/>
-      <c r="AT42" s="53"/>
-      <c r="AU42" s="53"/>
-      <c r="AV42" s="53"/>
-      <c r="AW42" s="53"/>
-      <c r="AX42" s="53"/>
-      <c r="AY42" s="53"/>
-      <c r="AZ42" s="53"/>
-      <c r="BA42" s="53"/>
-      <c r="BB42" s="53"/>
-      <c r="BC42" s="53"/>
-      <c r="BD42" s="53"/>
-      <c r="BE42" s="53"/>
-      <c r="BF42" s="53"/>
-      <c r="BG42" s="53"/>
-      <c r="BH42" s="53"/>
-      <c r="BI42" s="53"/>
-      <c r="BJ42" s="53"/>
-    </row>
-  </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:R1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="D7:G10"/>
-    <mergeCell ref="I7:M10"/>
-    <mergeCell ref="O7:P10"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="D19:G22"/>
-    <mergeCell ref="I19:M22"/>
-    <mergeCell ref="O19:P22"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="D13:G16"/>
-    <mergeCell ref="I13:M16"/>
-    <mergeCell ref="O13:P16"/>
-    <mergeCell ref="A42:P42"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:G28"/>
-    <mergeCell ref="I25:M28"/>
-    <mergeCell ref="O25:P28"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="I31:M34"/>
-    <mergeCell ref="O31:P34"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="D37:G40"/>
-    <mergeCell ref="I37:M40"/>
-    <mergeCell ref="O37:P40"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="13" fitToHeight="2" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="24" max="20" man="1"/>
-  </rowBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BJ42"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="20" zoomScaleNormal="30" zoomScaleSheetLayoutView="20" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="12" customWidth="1"/>
-    <col min="4" max="5" width="50.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="68.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="55" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="57.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="50.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="59.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="79.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="65" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="64.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="66.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="72.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="63.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="71.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="76" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" ht="204" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="139" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="140" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="18"/>
-    </row>
-    <row r="2" spans="1:32" ht="146.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="141" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="144" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="147" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="148"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="138"/>
-    </row>
-    <row r="3" spans="1:32" ht="273" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="122" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="128" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="128"/>
-    </row>
-    <row r="4" spans="1:32" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="131" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="133" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="49"/>
-      <c r="O4" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="135" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="136"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" s="45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="227.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="130"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="36"/>
-      <c r="T5" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="U5" s="41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-    </row>
-    <row r="7" spans="1:32" ht="363.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="137" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" s="151" t="s">
-        <v>71</v>
-      </c>
-      <c r="R7" s="152"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="151" t="s">
-        <v>71</v>
-      </c>
-      <c r="U7" s="152"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-    </row>
-    <row r="8" spans="1:32" ht="408" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="113"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="P8" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="154"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="154"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-    </row>
-    <row r="9" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="113"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="154"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-    </row>
-    <row r="10" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="113"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="154"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-    </row>
-    <row r="11" spans="1:32" ht="357.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="156"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="155"/>
-      <c r="U11" s="156"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-    </row>
-    <row r="12" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="61"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-    </row>
-    <row r="13" spans="1:32" ht="375" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="157" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="151" t="s">
-        <v>71</v>
-      </c>
-      <c r="R13" s="152"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="151" t="s">
-        <v>71</v>
-      </c>
-      <c r="U13" s="152"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-    </row>
-    <row r="14" spans="1:32" ht="408" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="158" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="154"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-    </row>
-    <row r="15" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="113"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="158" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="158" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="153"/>
-      <c r="U15" s="154"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-    </row>
-    <row r="16" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="113"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="P16" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="154"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="153"/>
-      <c r="U16" s="154"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-    </row>
-    <row r="17" spans="1:32" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="113"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="155"/>
-      <c r="R17" s="156"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="155"/>
-      <c r="U17" s="156"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-    </row>
-    <row r="18" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="61"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-    </row>
-    <row r="19" spans="1:32" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="23"/>
-      <c r="Q19" s="151" t="s">
-        <v>71</v>
-      </c>
-      <c r="R19" s="152"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="151" t="s">
-        <v>71</v>
-      </c>
-      <c r="U19" s="152"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-    </row>
-    <row r="20" spans="1:32" ht="407.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="113"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="158" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="42"/>
-      <c r="M20" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="161" t="s">
-        <v>95</v>
-      </c>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="154"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="153"/>
-      <c r="U20" s="154"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-    </row>
-    <row r="21" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="113"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="163" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="K21" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="161" t="s">
-        <v>95</v>
-      </c>
-      <c r="P21" s="162"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="154"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="153"/>
-      <c r="U21" s="154"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-    </row>
-    <row r="22" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="113"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="158" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="154"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="153"/>
-      <c r="U22" s="154"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-    </row>
-    <row r="23" spans="1:32" ht="362.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="113"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="163" t="s">
-        <v>97</v>
-      </c>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="156"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="155"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-    </row>
-    <row r="24" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="61"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-    </row>
-    <row r="25" spans="1:32" s="11" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="161" t="s">
+    <row r="42" spans="1:62" s="54" customFormat="1" ht="116.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="164"/>
-      <c r="L25" s="164"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="161" t="s">
-        <v>100</v>
-      </c>
-      <c r="P25" s="162"/>
-      <c r="Q25" s="151" t="s">
-        <v>71</v>
-      </c>
-      <c r="R25" s="152"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="151" t="s">
-        <v>71</v>
-      </c>
-      <c r="U25" s="152"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-    </row>
-    <row r="26" spans="1:32" ht="408.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="113"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="161" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="162"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="161" t="s">
-        <v>100</v>
-      </c>
-      <c r="P26" s="162"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="154"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="153"/>
-      <c r="U26" s="154"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-    </row>
-    <row r="27" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="113"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="158" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="159"/>
-      <c r="L27" s="159"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="159"/>
-      <c r="O27" s="159"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="154"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-    </row>
-    <row r="28" spans="1:32" ht="407.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="113"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="158" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="153"/>
-      <c r="U28" s="154"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-    </row>
-    <row r="29" spans="1:32" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="113"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="156"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="155"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-    </row>
-    <row r="30" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="61"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-    </row>
-    <row r="31" spans="1:32" ht="408" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="158" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="151" t="s">
-        <v>71</v>
-      </c>
-      <c r="R31" s="152"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="151" t="s">
-        <v>71</v>
-      </c>
-      <c r="U31" s="152"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-    </row>
-    <row r="32" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="113"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="158" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="158" t="s">
-        <v>92</v>
-      </c>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="159"/>
-      <c r="O32" s="159"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="153"/>
-      <c r="R32" s="154"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="153"/>
-      <c r="U32" s="154"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-    </row>
-    <row r="33" spans="1:62" ht="377.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="113"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="42"/>
-      <c r="G33" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="158" t="s">
-        <v>104</v>
-      </c>
-      <c r="K33" s="159"/>
-      <c r="L33" s="159"/>
-      <c r="M33" s="159"/>
-      <c r="N33" s="159"/>
-      <c r="O33" s="160"/>
-      <c r="P33" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q33" s="153"/>
-      <c r="R33" s="154"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="153"/>
-      <c r="U33" s="154"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-    </row>
-    <row r="34" spans="1:62" ht="373.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="113"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="161" t="s">
-        <v>106</v>
-      </c>
-      <c r="P34" s="162"/>
-      <c r="Q34" s="153"/>
-      <c r="R34" s="154"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="153"/>
-      <c r="U34" s="154"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-    </row>
-    <row r="35" spans="1:62" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="113"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="155"/>
-      <c r="R35" s="156"/>
-      <c r="S35" s="83"/>
-      <c r="T35" s="155"/>
-      <c r="U35" s="156"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-    </row>
-    <row r="36" spans="1:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-    </row>
-    <row r="37" spans="1:62" s="11" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="116" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="J37" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="K37" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="L37" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="M37" s="30"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="151" t="s">
-        <v>71</v>
-      </c>
-      <c r="R37" s="152"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="151" t="s">
-        <v>71</v>
-      </c>
-      <c r="U37" s="152"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="10"/>
-    </row>
-    <row r="38" spans="1:62" ht="406.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="117"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="42"/>
-      <c r="G38" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="J38" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="K38" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="L38" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="M38" s="23"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="153"/>
-      <c r="R38" s="154"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="153"/>
-      <c r="U38" s="154"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
-    </row>
-    <row r="39" spans="1:62" ht="401.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="117"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="23"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="J39" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="K39" s="42"/>
-      <c r="L39" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="M39" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="N39" s="17"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="153"/>
-      <c r="R39" s="154"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="153"/>
-      <c r="U39" s="154"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
-    </row>
-    <row r="40" spans="1:62" ht="407.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="117"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="N40" s="17"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="153"/>
-      <c r="R40" s="154"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="153"/>
-      <c r="U40" s="154"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="8"/>
-    </row>
-    <row r="41" spans="1:62" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="118"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="155"/>
-      <c r="R41" s="156"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="155"/>
-      <c r="U41" s="156"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="8"/>
-    </row>
-    <row r="42" spans="1:62" s="55" customFormat="1" ht="116.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="112" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="112"/>
-      <c r="L42" s="112"/>
-      <c r="M42" s="112"/>
-      <c r="N42" s="112"/>
-      <c r="O42" s="112"/>
-      <c r="P42" s="112"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="54"/>
-      <c r="AD42" s="54"/>
-      <c r="AE42" s="53"/>
-      <c r="AF42" s="53"/>
-      <c r="AG42" s="53"/>
-      <c r="AH42" s="53"/>
-      <c r="AI42" s="53"/>
-      <c r="AJ42" s="53"/>
-      <c r="AK42" s="53"/>
-      <c r="AL42" s="53"/>
-      <c r="AM42" s="53"/>
-      <c r="AN42" s="53"/>
-      <c r="AO42" s="53"/>
-      <c r="AP42" s="53"/>
-      <c r="AQ42" s="53"/>
-      <c r="AR42" s="53"/>
-      <c r="AS42" s="53"/>
-      <c r="AT42" s="53"/>
-      <c r="AU42" s="53"/>
-      <c r="AV42" s="53"/>
-      <c r="AW42" s="53"/>
-      <c r="AX42" s="53"/>
-      <c r="AY42" s="53"/>
-      <c r="AZ42" s="53"/>
-      <c r="BA42" s="53"/>
-      <c r="BB42" s="53"/>
-      <c r="BC42" s="53"/>
-      <c r="BD42" s="53"/>
-      <c r="BE42" s="53"/>
-      <c r="BF42" s="53"/>
-      <c r="BG42" s="53"/>
-      <c r="BH42" s="53"/>
-      <c r="BI42" s="53"/>
-      <c r="BJ42" s="53"/>
+      <c r="B42" s="153"/>
+      <c r="C42" s="153"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="153"/>
+      <c r="F42" s="153"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="153"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="153"/>
+      <c r="N42" s="153"/>
+      <c r="O42" s="153"/>
+      <c r="P42" s="153"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="51"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="52"/>
+      <c r="AJ42" s="52"/>
+      <c r="AK42" s="52"/>
+      <c r="AL42" s="52"/>
+      <c r="AM42" s="52"/>
+      <c r="AN42" s="52"/>
+      <c r="AO42" s="52"/>
+      <c r="AP42" s="52"/>
+      <c r="AQ42" s="52"/>
+      <c r="AR42" s="52"/>
+      <c r="AS42" s="52"/>
+      <c r="AT42" s="52"/>
+      <c r="AU42" s="52"/>
+      <c r="AV42" s="52"/>
+      <c r="AW42" s="52"/>
+      <c r="AX42" s="52"/>
+      <c r="AY42" s="52"/>
+      <c r="AZ42" s="52"/>
+      <c r="BA42" s="52"/>
+      <c r="BB42" s="52"/>
+      <c r="BC42" s="52"/>
+      <c r="BD42" s="52"/>
+      <c r="BE42" s="52"/>
+      <c r="BF42" s="52"/>
+      <c r="BG42" s="52"/>
+      <c r="BH42" s="52"/>
+      <c r="BI42" s="52"/>
+      <c r="BJ42" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="59">
@@ -7846,7 +6059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7854,7 +6067,7 @@
   <dimension ref="A1:BJ42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="17" zoomScaleNormal="30" zoomScaleSheetLayoutView="17" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21:U21"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -7870,9 +6083,9 @@
     <col min="10" max="10" width="50.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="59.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="79.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="75.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="81.85546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="2.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="64.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="72.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="108.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="81.85546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="116.140625" style="1" customWidth="1"/>
@@ -7883,80 +6096,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="204" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="140" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
       <c r="S1" s="18"/>
     </row>
     <row r="2" spans="1:32" ht="146.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="144" t="s">
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="147" t="s">
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="148"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="116"/>
       <c r="S2" s="19"/>
-      <c r="T2" s="138" t="s">
+      <c r="T2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="138"/>
+      <c r="U2" s="104"/>
     </row>
     <row r="3" spans="1:32" ht="273" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="125" t="s">
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="81"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="73"/>
       <c r="O3" s="13" t="s">
         <v>51</v>
       </c>
@@ -7970,72 +6183,72 @@
         <v>48</v>
       </c>
       <c r="S3" s="20"/>
-      <c r="T3" s="128" t="s">
+      <c r="T3" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="128"/>
+      <c r="U3" s="123"/>
     </row>
     <row r="4" spans="1:32" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="F4" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="98" t="s">
+      <c r="H4" s="89"/>
+      <c r="I4" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="99" t="s">
+      <c r="J4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="100" t="s">
+      <c r="M4" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="101"/>
-      <c r="O4" s="99" t="s">
+      <c r="N4" s="93"/>
+      <c r="O4" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="184" t="s">
+      <c r="Q4" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="185"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="98" t="s">
+      <c r="R4" s="174"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="88" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="267" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="130"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="134"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="31" t="s">
         <v>14</v>
       </c>
@@ -8111,48 +6324,48 @@
       <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:32" ht="363.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="171" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="137" t="s">
+      <c r="A7" s="160" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="23"/>
-      <c r="F7" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" s="72"/>
-      <c r="M7" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" s="91" t="s">
+      <c r="F7" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="65"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="65"/>
+      <c r="M7" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="99"/>
+      <c r="O7" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7" s="99"/>
+      <c r="T7" s="164" t="s">
         <v>105</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="S7" s="107"/>
-      <c r="T7" s="175" t="s">
-        <v>114</v>
-      </c>
-      <c r="U7" s="176"/>
+      <c r="U7" s="165"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
@@ -8166,50 +6379,50 @@
       <c r="AF7" s="8"/>
     </row>
     <row r="8" spans="1:32" ht="408" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="171"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="58" t="s">
+      <c r="A8" s="160"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="91" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="91" t="s">
+      <c r="D8" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="107"/>
-      <c r="J8" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" s="91" t="s">
+      <c r="H8" s="99"/>
+      <c r="J8" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="91" t="s">
+      <c r="L8" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" s="108"/>
-      <c r="O8" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="P8" s="91" t="s">
-        <v>105</v>
+      <c r="M8" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="100"/>
+      <c r="O8" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="83" t="s">
+        <v>96</v>
       </c>
       <c r="Q8" s="23"/>
-      <c r="R8" s="172" t="s">
-        <v>117</v>
-      </c>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173"/>
-      <c r="U8" s="174"/>
+      <c r="R8" s="161" t="s">
+        <v>108</v>
+      </c>
+      <c r="S8" s="162"/>
+      <c r="T8" s="162"/>
+      <c r="U8" s="163"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
@@ -8220,53 +6433,53 @@
       <c r="AF8" s="8"/>
     </row>
     <row r="9" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="171"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="59" t="s">
+      <c r="A9" s="160"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="91" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="91" t="s">
+      <c r="E9" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="91" t="s">
+      <c r="G9" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="107"/>
-      <c r="I9" s="91" t="s">
+      <c r="H9" s="99"/>
+      <c r="I9" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="91" t="s">
+      <c r="J9" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="91" t="s">
+      <c r="K9" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="91" t="s">
+      <c r="L9" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="N9" s="109"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q9" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="R9" s="172" t="s">
-        <v>117</v>
-      </c>
-      <c r="S9" s="173"/>
-      <c r="T9" s="173"/>
-      <c r="U9" s="174"/>
+      <c r="M9" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" s="101"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="R9" s="161" t="s">
+        <v>108</v>
+      </c>
+      <c r="S9" s="162"/>
+      <c r="T9" s="162"/>
+      <c r="U9" s="163"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -8277,50 +6490,50 @@
       <c r="AF9" s="8"/>
     </row>
     <row r="10" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="171"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="58" t="s">
+      <c r="A10" s="160"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="91" t="s">
+      <c r="E10" s="83" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="91" t="s">
+      <c r="H10" s="99"/>
+      <c r="I10" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="91" t="s">
+      <c r="J10" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="91" t="s">
+      <c r="K10" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="L10" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="N10" s="108"/>
-      <c r="P10" s="103" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q10" s="79" t="s">
-        <v>122</v>
-      </c>
-      <c r="R10" s="103" t="s">
-        <v>123</v>
-      </c>
-      <c r="S10" s="108"/>
-      <c r="T10" s="179" t="s">
-        <v>175</v>
-      </c>
-      <c r="U10" s="180"/>
+      <c r="N10" s="100"/>
+      <c r="P10" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q10" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="R10" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10" s="100"/>
+      <c r="T10" s="168" t="s">
+        <v>162</v>
+      </c>
+      <c r="U10" s="169"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
@@ -8331,29 +6544,29 @@
       <c r="AF10" s="8"/>
     </row>
     <row r="11" spans="1:32" ht="357.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="171"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="60" t="s">
+      <c r="A11" s="160"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="91" t="s">
+      <c r="D11" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="23"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="74"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="66"/>
       <c r="K11" s="23"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="84"/>
-      <c r="Q11" s="74"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="76"/>
+      <c r="Q11" s="66"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
@@ -8365,22 +6578,22 @@
       <c r="AF11" s="8"/>
     </row>
     <row r="12" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="102"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="83"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="75"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="27"/>
       <c r="S12" s="17"/>
@@ -8397,37 +6610,37 @@
       <c r="AF12" s="8"/>
     </row>
     <row r="13" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="171" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="114" t="s">
+      <c r="A13" s="160" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="110"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="102"/>
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
-      <c r="Q13" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="R13" s="74"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="179" t="s">
-        <v>176</v>
-      </c>
-      <c r="U13" s="180"/>
+      <c r="Q13" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="R13" s="66"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="168" t="s">
+        <v>163</v>
+      </c>
+      <c r="U13" s="169"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -8436,35 +6649,35 @@
       <c r="AF13" s="8"/>
     </row>
     <row r="14" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="171"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="58" t="s">
+      <c r="A14" s="160"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="181" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="182"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="182"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="183"/>
-      <c r="Q14" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="R14" s="74"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="179" t="s">
-        <v>176</v>
-      </c>
-      <c r="U14" s="180"/>
+      <c r="D14" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="171"/>
+      <c r="P14" s="172"/>
+      <c r="Q14" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="R14" s="66"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="168" t="s">
+        <v>163</v>
+      </c>
+      <c r="U14" s="169"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -8473,33 +6686,33 @@
       <c r="AF14" s="8"/>
     </row>
     <row r="15" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="171"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="58" t="s">
+      <c r="A15" s="160"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="181" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="182"/>
-      <c r="M15" s="182"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="182"/>
-      <c r="P15" s="183"/>
+      <c r="D15" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="172"/>
       <c r="Q15" s="23"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="108"/>
-      <c r="T15" s="175" t="s">
-        <v>127</v>
-      </c>
-      <c r="U15" s="176"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="100"/>
+      <c r="T15" s="164" t="s">
+        <v>118</v>
+      </c>
+      <c r="U15" s="165"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
@@ -8513,36 +6726,36 @@
       <c r="AF15" s="8"/>
     </row>
     <row r="16" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="171"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="58" t="s">
+      <c r="A16" s="160"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="158" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="160"/>
+      <c r="D16" s="142" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="144"/>
       <c r="J16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="P16" s="91" t="s">
-        <v>87</v>
+      <c r="N16" s="100"/>
+      <c r="O16" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="83" t="s">
+        <v>78</v>
       </c>
       <c r="Q16" s="23"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="108"/>
-      <c r="T16" s="175" t="s">
-        <v>127</v>
-      </c>
-      <c r="U16" s="176"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="164" t="s">
+        <v>118</v>
+      </c>
+      <c r="U16" s="165"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
@@ -8556,31 +6769,31 @@
       <c r="AF16" s="8"/>
     </row>
     <row r="17" spans="1:32" ht="252.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="171"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="60" t="s">
+      <c r="A17" s="160"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="59" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="108"/>
+      <c r="H17" s="100"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="157" t="s">
-        <v>129</v>
-      </c>
-      <c r="P17" s="157"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="141" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="141"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
@@ -8594,9 +6807,9 @@
       <c r="AF17" s="8"/>
     </row>
     <row r="18" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="102"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="62"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -8610,8 +6823,8 @@
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
@@ -8628,42 +6841,42 @@
       <c r="AF18" s="8"/>
     </row>
     <row r="19" spans="1:32" ht="407.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="171" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="114" t="s">
+      <c r="A19" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="58" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="23"/>
-      <c r="E19" s="74"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="23"/>
-      <c r="H19" s="108"/>
-      <c r="J19" s="91" t="s">
+      <c r="H19" s="100"/>
+      <c r="J19" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="91" t="s">
+      <c r="K19" s="83" t="s">
         <v>70</v>
       </c>
       <c r="L19" s="23"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="161" t="s">
-        <v>131</v>
-      </c>
-      <c r="P19" s="162"/>
-      <c r="Q19" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="R19" s="111" t="s">
-        <v>132</v>
-      </c>
-      <c r="S19" s="107"/>
-      <c r="T19" s="175" t="s">
-        <v>127</v>
-      </c>
-      <c r="U19" s="176"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="145" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="146"/>
+      <c r="Q19" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="R19" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="S19" s="99"/>
+      <c r="T19" s="164" t="s">
+        <v>118</v>
+      </c>
+      <c r="U19" s="165"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
@@ -8675,45 +6888,45 @@
       <c r="AF19" s="8"/>
     </row>
     <row r="20" spans="1:32" ht="407.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="171"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="58" t="s">
+      <c r="A20" s="160"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="158" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="91" t="s">
+      <c r="D20" s="142" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="91" t="s">
+      <c r="K20" s="83" t="s">
         <v>69</v>
       </c>
       <c r="L20" s="23"/>
-      <c r="M20" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="N20" s="108"/>
-      <c r="O20" s="161" t="s">
-        <v>134</v>
-      </c>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="R20" s="111" t="s">
-        <v>132</v>
-      </c>
-      <c r="S20" s="108"/>
-      <c r="T20" s="175" t="s">
-        <v>135</v>
-      </c>
-      <c r="U20" s="176"/>
+      <c r="M20" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="100"/>
+      <c r="O20" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="R20" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="S20" s="100"/>
+      <c r="T20" s="164" t="s">
+        <v>125</v>
+      </c>
+      <c r="U20" s="165"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
@@ -8725,41 +6938,41 @@
       <c r="AF20" s="8"/>
     </row>
     <row r="21" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="171"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="58" t="s">
+      <c r="A21" s="160"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="163" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="163" t="s">
-        <v>136</v>
-      </c>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="163"/>
-      <c r="P21" s="104" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q21" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="R21" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="S21" s="108"/>
-      <c r="T21" s="175" t="s">
-        <v>138</v>
-      </c>
-      <c r="U21" s="176"/>
+      <c r="D21" s="147" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" s="147"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q21" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="R21" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="S21" s="100"/>
+      <c r="T21" s="164" t="s">
+        <v>127</v>
+      </c>
+      <c r="U21" s="165"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
@@ -8771,44 +6984,44 @@
       <c r="AF21" s="8"/>
     </row>
     <row r="22" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="171"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="58" t="s">
+      <c r="A22" s="160"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="91" t="s">
+      <c r="D22" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="91" t="s">
+      <c r="E22" s="65"/>
+      <c r="F22" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="91" t="s">
+      <c r="G22" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="108"/>
-      <c r="J22" s="158" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="104" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q22" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="R22" s="93" t="s">
-        <v>177</v>
-      </c>
-      <c r="S22" s="108"/>
-      <c r="T22" s="175" t="s">
-        <v>139</v>
-      </c>
-      <c r="U22" s="176"/>
+      <c r="H22" s="100"/>
+      <c r="J22" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q22" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="R22" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="S22" s="100"/>
+      <c r="T22" s="164" t="s">
+        <v>128</v>
+      </c>
+      <c r="U22" s="165"/>
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
@@ -8822,33 +7035,33 @@
       <c r="AF22" s="8"/>
     </row>
     <row r="23" spans="1:32" ht="362.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="171"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="60" t="s">
+      <c r="A23" s="160"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="91" t="s">
+      <c r="D23" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="90" t="s">
+      <c r="E23" s="65"/>
+      <c r="F23" s="82" t="s">
         <v>62</v>
       </c>
       <c r="G23" s="23"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="74"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="66"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
-      <c r="L23" s="91" t="s">
-        <v>140</v>
+      <c r="L23" s="83" t="s">
+        <v>129</v>
       </c>
       <c r="M23" s="23"/>
-      <c r="N23" s="108"/>
+      <c r="N23" s="100"/>
       <c r="O23" s="23"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="110"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="102"/>
       <c r="T23" s="23"/>
       <c r="U23" s="23"/>
       <c r="V23" s="8"/>
@@ -8864,7 +7077,7 @@
       <c r="AF23" s="8"/>
     </row>
     <row r="24" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="102"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
       <c r="D24" s="17"/>
@@ -8882,7 +7095,7 @@
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
-      <c r="S24" s="83"/>
+      <c r="S24" s="75"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
       <c r="V24" s="8"/>
@@ -8898,39 +7111,39 @@
       <c r="AF24" s="8"/>
     </row>
     <row r="25" spans="1:32" s="11" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="171" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="114" t="s">
+      <c r="A25" s="160" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="158" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="160"/>
+      <c r="D25" s="142" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="144"/>
       <c r="J25" s="42"/>
       <c r="K25" s="42"/>
       <c r="L25" s="42"/>
       <c r="M25" s="42"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="161" t="s">
-        <v>100</v>
-      </c>
-      <c r="P25" s="162"/>
+      <c r="O25" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" s="146"/>
       <c r="Q25" s="30"/>
       <c r="R25" s="30"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="177" t="s">
-        <v>143</v>
-      </c>
-      <c r="U25" s="178"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="166" t="s">
+        <v>132</v>
+      </c>
+      <c r="U25" s="167"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
@@ -8944,35 +7157,35 @@
       <c r="AF25" s="10"/>
     </row>
     <row r="26" spans="1:32" ht="408.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="171"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="58" t="s">
+      <c r="A26" s="160"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="161" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="164"/>
+      <c r="D26" s="145" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="161" t="s">
-        <v>145</v>
-      </c>
-      <c r="P26" s="162"/>
+      <c r="O26" s="145" t="s">
+        <v>134</v>
+      </c>
+      <c r="P26" s="146"/>
       <c r="Q26" s="23"/>
       <c r="R26" s="23"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="165" t="s">
-        <v>146</v>
-      </c>
-      <c r="U26" s="166"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="154" t="s">
+        <v>135</v>
+      </c>
+      <c r="U26" s="155"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -8983,39 +7196,39 @@
       <c r="AF26" s="8"/>
     </row>
     <row r="27" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="171"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="58" t="s">
+      <c r="A27" s="160"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="157" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="157"/>
+      <c r="D27" s="141" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="P27" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q27" s="161" t="s">
-        <v>148</v>
-      </c>
-      <c r="R27" s="162"/>
+      <c r="O27" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q27" s="145" t="s">
+        <v>137</v>
+      </c>
+      <c r="R27" s="146"/>
       <c r="S27" s="17"/>
-      <c r="T27" s="165" t="s">
-        <v>149</v>
-      </c>
-      <c r="U27" s="166"/>
+      <c r="T27" s="154" t="s">
+        <v>138</v>
+      </c>
+      <c r="U27" s="155"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
@@ -9026,39 +7239,39 @@
       <c r="AF27" s="8"/>
     </row>
     <row r="28" spans="1:32" ht="407.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="171"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="58" t="s">
+      <c r="A28" s="160"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="157" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="P28" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q28" s="161" t="s">
-        <v>148</v>
-      </c>
-      <c r="R28" s="162"/>
+      <c r="D28" s="141" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q28" s="145" t="s">
+        <v>137</v>
+      </c>
+      <c r="R28" s="146"/>
       <c r="S28" s="17"/>
-      <c r="T28" s="165" t="s">
-        <v>149</v>
-      </c>
-      <c r="U28" s="166"/>
+      <c r="T28" s="154" t="s">
+        <v>138</v>
+      </c>
+      <c r="U28" s="155"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
@@ -9072,26 +7285,26 @@
       <c r="AF28" s="8"/>
     </row>
     <row r="29" spans="1:32" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="171"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="60" t="s">
+      <c r="A29" s="160"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="59" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
-      <c r="H29" s="83"/>
+      <c r="H29" s="75"/>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="23"/>
-      <c r="N29" s="83"/>
+      <c r="N29" s="75"/>
       <c r="O29" s="23"/>
       <c r="P29" s="23"/>
       <c r="Q29" s="23"/>
-      <c r="S29" s="83"/>
+      <c r="S29" s="75"/>
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
       <c r="V29" s="8"/>
@@ -9107,24 +7320,24 @@
       <c r="AF29" s="8"/>
     </row>
     <row r="30" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="102"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="28"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="75"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
@@ -9140,47 +7353,47 @@
       <c r="AE30" s="8"/>
       <c r="AF30" s="8"/>
     </row>
-    <row r="31" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="171" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="114" t="s">
+    <row r="31" spans="1:32" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="160" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="62" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
-      <c r="F31" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="G31" s="157" t="s">
-        <v>118</v>
-      </c>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="K31" s="91" t="s">
-        <v>152</v>
+      <c r="F31" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="141" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="K31" s="83" t="s">
+        <v>141</v>
       </c>
       <c r="L31" s="23"/>
-      <c r="M31" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="N31" s="83"/>
-      <c r="O31" s="91" t="s">
-        <v>154</v>
-      </c>
-      <c r="P31" s="103" t="s">
-        <v>155</v>
+      <c r="M31" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="N31" s="75"/>
+      <c r="O31" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="P31" s="95" t="s">
+        <v>142</v>
       </c>
       <c r="Q31" s="16"/>
-      <c r="R31" s="172" t="s">
-        <v>156</v>
-      </c>
-      <c r="S31" s="173"/>
-      <c r="T31" s="173"/>
-      <c r="U31" s="174"/>
+      <c r="R31" s="161" t="s">
+        <v>143</v>
+      </c>
+      <c r="S31" s="162"/>
+      <c r="T31" s="162"/>
+      <c r="U31" s="163"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
@@ -9194,39 +7407,39 @@
       <c r="AF31" s="8"/>
     </row>
     <row r="32" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="171"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="64" t="s">
+      <c r="A32" s="160"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="63" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
-      <c r="F32" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="157" t="s">
-        <v>157</v>
-      </c>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="163" t="s">
-        <v>158</v>
-      </c>
-      <c r="K32" s="163"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
-      <c r="P32" s="91" t="s">
-        <v>159</v>
+      <c r="F32" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="141" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="147"/>
+      <c r="P32" s="83" t="s">
+        <v>146</v>
       </c>
       <c r="Q32" s="16"/>
-      <c r="R32" s="172" t="s">
-        <v>156</v>
-      </c>
-      <c r="S32" s="173"/>
-      <c r="T32" s="173"/>
-      <c r="U32" s="174"/>
+      <c r="R32" s="161" t="s">
+        <v>143</v>
+      </c>
+      <c r="S32" s="162"/>
+      <c r="T32" s="162"/>
+      <c r="U32" s="163"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -9237,40 +7450,40 @@
       <c r="AF32" s="8"/>
     </row>
     <row r="33" spans="1:62" ht="408" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="171"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="64" t="s">
+      <c r="A33" s="160"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="42"/>
-      <c r="E33" s="91" t="s">
+      <c r="E33" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="157" t="s">
-        <v>152</v>
-      </c>
-      <c r="H33" s="157"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="163" t="s">
-        <v>160</v>
-      </c>
-      <c r="K33" s="163"/>
-      <c r="L33" s="163"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="163"/>
-      <c r="P33" s="103" t="s">
-        <v>161</v>
+      <c r="G33" s="141" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="147" t="s">
+        <v>147</v>
+      </c>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="147"/>
+      <c r="P33" s="95" t="s">
+        <v>148</v>
       </c>
       <c r="Q33" s="16"/>
-      <c r="R33" s="103" t="s">
-        <v>162</v>
+      <c r="R33" s="95" t="s">
+        <v>149</v>
       </c>
       <c r="S33" s="17"/>
-      <c r="T33" s="165" t="s">
-        <v>163</v>
-      </c>
-      <c r="U33" s="166"/>
+      <c r="T33" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="U33" s="155"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
@@ -9282,42 +7495,42 @@
       <c r="AF33" s="8"/>
     </row>
     <row r="34" spans="1:62" ht="407.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="171"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="64" t="s">
+      <c r="A34" s="160"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="42"/>
-      <c r="E34" s="91" t="s">
+      <c r="E34" s="83" t="s">
         <v>63</v>
       </c>
       <c r="F34" s="16"/>
-      <c r="G34" s="91" t="s">
+      <c r="G34" s="83" t="s">
         <v>59</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="L34" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="M34" s="91" t="s">
-        <v>82</v>
+      <c r="J34" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="M34" s="83" t="s">
+        <v>73</v>
       </c>
       <c r="N34" s="17"/>
-      <c r="O34" s="91" t="s">
-        <v>85</v>
+      <c r="O34" s="83" t="s">
+        <v>76</v>
       </c>
       <c r="P34" s="23"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
       <c r="S34" s="17"/>
-      <c r="T34" s="165" t="s">
-        <v>163</v>
-      </c>
-      <c r="U34" s="166"/>
+      <c r="T34" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="U34" s="155"/>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
@@ -9330,9 +7543,9 @@
       <c r="AF34" s="8"/>
     </row>
     <row r="35" spans="1:62" ht="255.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="171"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="65" t="s">
+      <c r="A35" s="160"/>
+      <c r="B35" s="140"/>
+      <c r="C35" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="23"/>
@@ -9342,15 +7555,15 @@
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
-      <c r="L35" s="91" t="s">
-        <v>118</v>
+      <c r="L35" s="83" t="s">
+        <v>109</v>
       </c>
       <c r="N35" s="22"/>
       <c r="O35" s="23"/>
       <c r="P35" s="23"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
-      <c r="S35" s="83"/>
+      <c r="S35" s="75"/>
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
       <c r="V35" s="8"/>
@@ -9366,7 +7579,7 @@
       <c r="AF35" s="8"/>
     </row>
     <row r="36" spans="1:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="102"/>
+      <c r="A36" s="94"/>
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
       <c r="D36" s="17"/>
@@ -9400,44 +7613,44 @@
       <c r="AF36" s="8"/>
     </row>
     <row r="37" spans="1:62" s="11" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="167" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="168" t="s">
+      <c r="A37" s="156" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="91" t="s">
+      <c r="D37" s="83" t="s">
         <v>56</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="91" t="s">
+      <c r="I37" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="K37" s="91" t="s">
+      <c r="K37" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="L37" s="91" t="s">
+      <c r="L37" s="83" t="s">
         <v>54</v>
       </c>
       <c r="M37" s="30"/>
       <c r="N37" s="24"/>
       <c r="O37" s="30"/>
-      <c r="P37" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q37" s="162"/>
+      <c r="P37" s="145" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q37" s="146"/>
       <c r="R37" s="16"/>
       <c r="S37" s="17"/>
-      <c r="T37" s="165" t="s">
-        <v>168</v>
-      </c>
-      <c r="U37" s="166"/>
+      <c r="T37" s="154" t="s">
+        <v>155</v>
+      </c>
+      <c r="U37" s="155"/>
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
       <c r="Y37" s="10"/>
@@ -9450,47 +7663,47 @@
       <c r="AF37" s="10"/>
     </row>
     <row r="38" spans="1:62" ht="406.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="167"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="58" t="s">
+      <c r="A38" s="156"/>
+      <c r="B38" s="140"/>
+      <c r="C38" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="91" t="s">
+      <c r="D38" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="105" t="s">
-        <v>169</v>
+      <c r="E38" s="97" t="s">
+        <v>156</v>
       </c>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="91" t="s">
+      <c r="I38" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="J38" s="91" t="s">
+      <c r="J38" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="K38" s="91" t="s">
+      <c r="K38" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="90" t="s">
+      <c r="L38" s="82" t="s">
         <v>55</v>
       </c>
       <c r="M38" s="23"/>
       <c r="N38" s="17"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="104" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q38" s="79" t="s">
-        <v>174</v>
+      <c r="P38" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q38" s="71" t="s">
+        <v>161</v>
       </c>
       <c r="R38" s="16"/>
       <c r="S38" s="17"/>
-      <c r="T38" s="165" t="s">
-        <v>168</v>
-      </c>
-      <c r="U38" s="166"/>
+      <c r="T38" s="154" t="s">
+        <v>155</v>
+      </c>
+      <c r="U38" s="155"/>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
@@ -9500,49 +7713,49 @@
       <c r="AF38" s="8"/>
     </row>
     <row r="39" spans="1:62" ht="382.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="167"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="58" t="s">
+      <c r="A39" s="156"/>
+      <c r="B39" s="140"/>
+      <c r="C39" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="E39" s="91" t="s">
+      <c r="D39" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="91" t="s">
+      <c r="F39" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="91" t="s">
+      <c r="G39" s="83" t="s">
         <v>65</v>
       </c>
       <c r="H39" s="17"/>
-      <c r="I39" s="91" t="s">
+      <c r="I39" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J39" s="91" t="s">
+      <c r="J39" s="83" t="s">
         <v>60</v>
       </c>
       <c r="K39" s="42"/>
-      <c r="L39" s="91" t="s">
+      <c r="L39" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="M39" s="91" t="s">
-        <v>82</v>
+      <c r="M39" s="83" t="s">
+        <v>73</v>
       </c>
       <c r="N39" s="17"/>
       <c r="O39" s="16"/>
-      <c r="P39" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q39" s="106"/>
+      <c r="P39" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q39" s="98"/>
       <c r="R39" s="16"/>
       <c r="S39" s="17"/>
-      <c r="T39" s="169" t="s">
-        <v>171</v>
-      </c>
-      <c r="U39" s="170"/>
+      <c r="T39" s="158" t="s">
+        <v>158</v>
+      </c>
+      <c r="U39" s="159"/>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
@@ -9552,30 +7765,30 @@
       <c r="AF39" s="8"/>
     </row>
     <row r="40" spans="1:62" ht="407.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="167"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="58" t="s">
+      <c r="A40" s="156"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="57" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="42"/>
-      <c r="E40" s="91" t="s">
+      <c r="E40" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="91" t="s">
+      <c r="F40" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="90" t="s">
+      <c r="G40" s="82" t="s">
         <v>59</v>
       </c>
       <c r="H40" s="17"/>
-      <c r="I40" s="91" t="s">
+      <c r="I40" s="83" t="s">
         <v>68</v>
       </c>
       <c r="J40" s="42"/>
       <c r="K40" s="42"/>
       <c r="L40" s="23"/>
-      <c r="M40" s="91" t="s">
-        <v>84</v>
+      <c r="M40" s="83" t="s">
+        <v>75</v>
       </c>
       <c r="N40" s="17"/>
       <c r="O40" s="16"/>
@@ -9583,10 +7796,10 @@
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
       <c r="S40" s="17"/>
-      <c r="T40" s="169" t="s">
-        <v>171</v>
-      </c>
-      <c r="U40" s="170"/>
+      <c r="T40" s="158" t="s">
+        <v>158</v>
+      </c>
+      <c r="U40" s="159"/>
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
@@ -9599,9 +7812,9 @@
       <c r="AF40" s="8"/>
     </row>
     <row r="41" spans="1:62" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="167"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="58" t="s">
+      <c r="A41" s="156"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="57" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="23"/>
@@ -9634,71 +7847,71 @@
       <c r="AE41" s="8"/>
       <c r="AF41" s="8"/>
     </row>
-    <row r="42" spans="1:62" s="55" customFormat="1" ht="186.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="112" t="s">
-        <v>172</v>
-      </c>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="112"/>
-      <c r="L42" s="112"/>
-      <c r="M42" s="112"/>
-      <c r="N42" s="112"/>
-      <c r="O42" s="112"/>
-      <c r="P42" s="112"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="54"/>
-      <c r="AD42" s="54"/>
-      <c r="AE42" s="53"/>
-      <c r="AF42" s="53"/>
-      <c r="AG42" s="53"/>
-      <c r="AH42" s="53"/>
-      <c r="AI42" s="53"/>
-      <c r="AJ42" s="53"/>
-      <c r="AK42" s="53"/>
-      <c r="AL42" s="53"/>
-      <c r="AM42" s="53"/>
-      <c r="AN42" s="53"/>
-      <c r="AO42" s="53"/>
-      <c r="AP42" s="53"/>
-      <c r="AQ42" s="53"/>
-      <c r="AR42" s="53"/>
-      <c r="AS42" s="53"/>
-      <c r="AT42" s="53"/>
-      <c r="AU42" s="53"/>
-      <c r="AV42" s="53"/>
-      <c r="AW42" s="53"/>
-      <c r="AX42" s="53"/>
-      <c r="AY42" s="53"/>
-      <c r="AZ42" s="53"/>
-      <c r="BA42" s="53"/>
-      <c r="BB42" s="53"/>
-      <c r="BC42" s="53"/>
-      <c r="BD42" s="53"/>
-      <c r="BE42" s="53"/>
-      <c r="BF42" s="53"/>
-      <c r="BG42" s="53"/>
-      <c r="BH42" s="53"/>
-      <c r="BI42" s="53"/>
-      <c r="BJ42" s="53"/>
+    <row r="42" spans="1:62" s="54" customFormat="1" ht="186.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="153" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="153"/>
+      <c r="C42" s="153"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="153"/>
+      <c r="F42" s="153"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="153"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="153"/>
+      <c r="N42" s="153"/>
+      <c r="O42" s="153"/>
+      <c r="P42" s="153"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="51"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="52"/>
+      <c r="AJ42" s="52"/>
+      <c r="AK42" s="52"/>
+      <c r="AL42" s="52"/>
+      <c r="AM42" s="52"/>
+      <c r="AN42" s="52"/>
+      <c r="AO42" s="52"/>
+      <c r="AP42" s="52"/>
+      <c r="AQ42" s="52"/>
+      <c r="AR42" s="52"/>
+      <c r="AS42" s="52"/>
+      <c r="AT42" s="52"/>
+      <c r="AU42" s="52"/>
+      <c r="AV42" s="52"/>
+      <c r="AW42" s="52"/>
+      <c r="AX42" s="52"/>
+      <c r="AY42" s="52"/>
+      <c r="AZ42" s="52"/>
+      <c r="BA42" s="52"/>
+      <c r="BB42" s="52"/>
+      <c r="BC42" s="52"/>
+      <c r="BD42" s="52"/>
+      <c r="BE42" s="52"/>
+      <c r="BF42" s="52"/>
+      <c r="BG42" s="52"/>
+      <c r="BH42" s="52"/>
+      <c r="BI42" s="52"/>
+      <c r="BJ42" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="74">
